--- a/Test cases.xlsx
+++ b/Test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirage\Documents\code\barco_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CECC3A2-8A69-404E-951F-3B8FB11E0EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A303446-38A0-4315-A2CB-3D44D3758B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>No</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Verify entering valid sn will return valid product info</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Enter 1863552437, and click 'Get Info' button  </t>
   </si>
   <si>
     <t>Verify the search log will be recored on server log</t>
@@ -176,6 +173,35 @@
   </si>
   <si>
     <t>The label of serial number will overlap with the Explore button</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Enter 1863552437, and click 'Get Info' button  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch between different languages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Switch to different languages via changing locale in url
+2. Check if the page is translated to the correspondent language</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The page should show the correspondent language</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verify if no match result, it will show the no result copywriting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Enter 1863552436, and click 'Get Info' button  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It should show the query sn and no search result copywriting</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -238,22 +264,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -266,6 +285,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -578,15 +607,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:D12"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.36328125" customWidth="1"/>
+    <col min="2" max="2" width="49.6328125" customWidth="1"/>
     <col min="3" max="3" width="65.90625" customWidth="1"/>
     <col min="4" max="4" width="62.08984375" customWidth="1"/>
   </cols>
@@ -606,7 +635,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -617,7 +646,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -626,7 +655,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
@@ -635,7 +664,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -647,66 +676,88 @@
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="110" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>24</v>
+    </row>
+    <row r="14" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -733,42 +784,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="25" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -798,42 +849,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="9" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Test cases.xlsx
+++ b/Test cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirage\Documents\code\barco_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A303446-38A0-4315-A2CB-3D44D3758B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973D549A-63C4-4C8A-A72E-2575BB93328D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test cases" sheetId="1" r:id="rId1"/>
@@ -287,15 +287,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -362,15 +362,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>806878</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76426</xdr:rowOff>
+      <xdr:colOff>813228</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -393,7 +393,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1498600"/>
+          <a:off x="6350" y="1397000"/>
           <a:ext cx="8325278" cy="4407126"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -609,7 +609,7 @@
   </sheetPr>
   <dimension ref="A2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -635,7 +635,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -646,7 +646,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -655,7 +655,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
@@ -664,7 +664,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -676,7 +676,7 @@
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -684,10 +684,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="110" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -695,25 +695,25 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -722,7 +722,7 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
@@ -772,7 +772,7 @@
   <dimension ref="A2:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -836,8 +836,8 @@
   </sheetPr>
   <dimension ref="A2:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Test cases.xlsx
+++ b/Test cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirage\Documents\code\barco_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973D549A-63C4-4C8A-A72E-2575BB93328D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BEC598-D047-4D12-8522-AF19C7431785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test cases" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>No</t>
   </si>
@@ -88,10 +88,6 @@
   </si>
   <si>
     <t>Compability with mobile web</t>
-  </si>
-  <si>
-    <t>1. Set the browser to mobile web mode
-2. Enter different sn to check the layout</t>
   </si>
   <si>
     <t>The layout should display normally. No text/image overlap, and the text should not over the border</t>
@@ -197,11 +193,28 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1. Enter 1863552436, and click 'Get Info' button  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>It should show the query sn and no search result copywriting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_automated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Enter 186355243, and click 'Get Info' button  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Set the browser to mobile web mode
+2. Enter different sn to check the layout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -264,13 +277,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -293,9 +304,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,21 +638,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.6328125" customWidth="1"/>
-    <col min="3" max="3" width="65.90625" customWidth="1"/>
-    <col min="4" max="4" width="62.08984375" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" style="13"/>
+    <col min="2" max="2" width="49.6328125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="65.90625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="79.81640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="13"/>
+    <col min="6" max="16384" width="12.6328125" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -633,131 +667,192 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="E2" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="2" t="s">
+      <c r="E3" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="2" t="s">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="2" t="s">
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="110" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" ht="110" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="110" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="110" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="2" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>6</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>7</v>
+      </c>
       <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>44</v>
+      <c r="E14" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -784,42 +879,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="25" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -836,7 +931,7 @@
   </sheetPr>
   <dimension ref="A2:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -849,42 +944,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="7" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Test cases.xlsx
+++ b/Test cases.xlsx
@@ -5,24 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirage\Documents\code\barco_demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\barco_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BEC598-D047-4D12-8522-AF19C7431785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D90D4A-1D30-4635-A1EC-8A72CA17F49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test cases" sheetId="1" r:id="rId1"/>
     <sheet name="Issue1" sheetId="2" r:id="rId2"/>
     <sheet name="Issue2" sheetId="3" r:id="rId3"/>
+    <sheet name="Issue3" sheetId="5" r:id="rId4"/>
+    <sheet name="Issue4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
   <si>
     <t>No</t>
   </si>
@@ -215,6 +217,55 @@
   </si>
   <si>
     <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>If the sn is not valid, should not query warranty for the invalid sn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Enter an invalid sn, like …...
+2. Click 'Get info' button</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>If the sn is not valid, should only show the error toast, and should not query warranty for the invalid sn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It will query warranty for the invalid sn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chrome ver.110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chrome ver.110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Should not allow to enter chars or sign in the input bar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Enter some chars, digits and signs in the input area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Should only allow to enter digits in the input area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can type chars and signs in the input area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -277,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -287,9 +338,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -302,31 +350,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -349,10 +397,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>131762</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7058025" cy="7658100"/>
     <xdr:pic>
@@ -374,7 +422,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="165100" y="1082675"/>
+          <a:off x="5932488" y="331787"/>
           <a:ext cx="7058025" cy="7658100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -392,16 +440,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>813228</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>171676</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2965878</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66901</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -424,8 +472,106 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6350" y="1397000"/>
-          <a:ext cx="8325278" cy="4407126"/>
+          <a:off x="7616825" y="314325"/>
+          <a:ext cx="8498316" cy="4476976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>138114</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>109539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57231</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>147675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D9DEAE2-D29C-11AD-BB6D-68F93A8329A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7434264" y="509589"/>
+          <a:ext cx="10963355" cy="4924461"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>23891</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114332</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5456FB-2DC4-95E2-3020-8724B267E702}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7453312" y="652462"/>
+          <a:ext cx="10910967" cy="4386295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -640,22 +786,22 @@
   </sheetPr>
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="13"/>
-    <col min="2" max="2" width="49.6328125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="65.90625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="79.81640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="13"/>
-    <col min="6" max="16384" width="12.6328125" style="7"/>
+    <col min="1" max="1" width="12.59765625" style="9"/>
+    <col min="2" max="2" width="49.59765625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="65.9296875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="79.796875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" style="9"/>
+    <col min="6" max="16384" width="12.59765625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -667,15 +813,15 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -684,12 +830,12 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
       <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -697,10 +843,10 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13"/>
       <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -708,10 +854,10 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13"/>
       <c r="B6" s="15"/>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -719,85 +865,85 @@
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" ht="110" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" ht="110" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="110" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+    <row r="8" spans="1:5" ht="110" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+    <row r="9" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13">
         <v>4</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13"/>
       <c r="B10" s="15"/>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="D10" s="16"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" ht="31.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13">
         <v>5</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
       <c r="B12" s="15"/>
       <c r="C12" s="1" t="s">
         <v>19</v>
@@ -805,10 +951,10 @@
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -817,32 +963,35 @@
       <c r="C13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+    <row r="14" spans="1:5" ht="29.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
         <v>7</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="10" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E11:E12"/>
@@ -850,9 +999,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -864,56 +1010,70 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:E4"/>
+  <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.54296875" customWidth="1"/>
-    <col min="2" max="2" width="46.7265625" customWidth="1"/>
-    <col min="3" max="3" width="43.08984375" customWidth="1"/>
-    <col min="4" max="4" width="35.90625" customWidth="1"/>
+    <col min="1" max="1" width="21.265625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="61.46484375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="43.06640625" customWidth="1"/>
+    <col min="4" max="4" width="35.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="25" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -929,62 +1089,248 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:E4"/>
+  <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="60.90625" customWidth="1"/>
-    <col min="2" max="2" width="46.7265625" customWidth="1"/>
-    <col min="3" max="3" width="79.90625" customWidth="1"/>
-    <col min="4" max="4" width="53.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" style="6" customWidth="1"/>
+    <col min="2" max="2" width="84.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="79.9296875" customWidth="1"/>
+    <col min="4" max="4" width="53.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="7" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4779655A-9853-491A-A235-9C679B0EDE47}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A2:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.796875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="83.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="43.06640625" customWidth="1"/>
+    <col min="4" max="4" width="35.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D215A28-C9D8-41E1-BB8D-9817985BAF96}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A2:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.796875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="83.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="43.06640625" customWidth="1"/>
+    <col min="4" max="4" width="35.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>